--- a/src/test/resources/getconfig_compare_test.xlsx
+++ b/src/test/resources/getconfig_compare_test.xlsx
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId4"/>
     <sheet name="検査対象" sheetId="2" r:id="rId5"/>
-    <sheet name="パラメータ パッケージ" sheetId="3" r:id="rId6"/>
+    <sheet name="パラメータ(Packages)" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">利用手順!$A$1:$T$108</definedName>
@@ -18,17 +18,17 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1603094671" val="978" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1603094671" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1603094671" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1603094671"/>
+      <pm:revision xmlns:pm="smNativeData" day="1603321962" val="978" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1603321962" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1603321962" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1603321962"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="160">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -457,18 +457,6 @@
   </si>
   <si>
     <t>cent75</t>
-  </si>
-  <si>
-    <t>必須パッケージ</t>
-  </si>
-  <si>
-    <t>packages.requirements</t>
-  </si>
-  <si>
-    <t>tigervnc</t>
-  </si>
-  <si>
-    <t>tigervnc-server</t>
   </si>
   <si>
     <t>binutils</t>
@@ -551,7 +539,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1603094671" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1603321962" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -566,7 +554,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1603094671" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1603321962" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -582,7 +570,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1603094671" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1603321962" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -599,7 +587,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1603094671" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1603321962" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -608,7 +596,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -621,7 +609,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1603094671" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1603321962" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -632,7 +620,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1603094671" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1603321962" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -643,7 +631,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1603094671" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1603321962" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -654,7 +642,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1603094671" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1603321962" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -665,7 +653,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1603094671" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1603321962" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -676,7 +664,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1603094671" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1603321962" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -687,7 +675,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1603094671" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1603321962" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -698,7 +686,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1603094671" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1603321962" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -709,7 +697,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1603094671" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1603321962" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -720,7 +708,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1603094671" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1603321962" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -731,7 +719,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1603094671" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1603321962" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -742,7 +730,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1603094671" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1603321962" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -753,7 +741,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1603094671" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1603321962" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -764,7 +752,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1603094671" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1603321962" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -775,7 +763,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1603094671" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1603321962" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -786,7 +774,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1603094671" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1603321962" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -797,7 +785,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1603094671" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1603321962" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -808,7 +796,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1603094671" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1603321962" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -825,7 +813,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1603094671" type="1" fgLvl="38" fgClr="0000FFFF" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1603321962" type="1" fgLvl="38" fgClr="0000FFFF" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -836,24 +824,13 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1603094671" type="1" fgLvl="38" fgClr="0000FFFF" bgLvl="62" bgClr="00FFFFFF"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1603094671" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1603321962" type="1" fgLvl="38" fgClr="0000FFFF" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -869,7 +846,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1603094671"/>
+          <pm:border xmlns:pm="smNativeData" id="1603321962"/>
         </ext>
       </extLst>
     </border>
@@ -888,7 +865,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1603094671">
+          <pm:border xmlns:pm="smNativeData" id="1603321962">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -912,7 +889,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1603094671"/>
+          <pm:border xmlns:pm="smNativeData" id="1603321962"/>
         </ext>
       </extLst>
     </border>
@@ -931,7 +908,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1603094671">
+          <pm:border xmlns:pm="smNativeData" id="1603321962">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -953,7 +930,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1603094671">
+          <pm:border xmlns:pm="smNativeData" id="1603321962">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -974,7 +951,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1603094671">
+          <pm:border xmlns:pm="smNativeData" id="1603321962">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -996,7 +973,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1603094671">
+          <pm:border xmlns:pm="smNativeData" id="1603321962">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1018,7 +995,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1603094671">
+          <pm:border xmlns:pm="smNativeData" id="1603321962">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1039,7 +1016,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1603094671">
+          <pm:border xmlns:pm="smNativeData" id="1603321962">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1061,7 +1038,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1603094671">
+          <pm:border xmlns:pm="smNativeData" id="1603321962">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1085,7 +1062,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1603094671">
+          <pm:border xmlns:pm="smNativeData" id="1603321962">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1109,7 +1086,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1603094671">
+          <pm:border xmlns:pm="smNativeData" id="1603321962">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1132,7 +1109,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1603094671">
+          <pm:border xmlns:pm="smNativeData" id="1603321962">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1155,7 +1132,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1603094671">
+          <pm:border xmlns:pm="smNativeData" id="1603321962">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1177,7 +1154,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1603094671">
+          <pm:border xmlns:pm="smNativeData" id="1603321962">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1200,7 +1177,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1603094671">
+          <pm:border xmlns:pm="smNativeData" id="1603321962">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1221,7 +1198,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1603094671">
+          <pm:border xmlns:pm="smNativeData" id="1603321962">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1242,7 +1219,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1603094671">
+          <pm:border xmlns:pm="smNativeData" id="1603321962">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1266,7 +1243,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1603094671">
+          <pm:border xmlns:pm="smNativeData" id="1603321962">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1290,7 +1267,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1603094671">
+          <pm:border xmlns:pm="smNativeData" id="1603321962">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1313,7 +1290,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1603094671">
+          <pm:border xmlns:pm="smNativeData" id="1603321962">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1337,7 +1314,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1603094671">
+          <pm:border xmlns:pm="smNativeData" id="1603321962">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1361,30 +1338,11 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1603094671">
+          <pm:border xmlns:pm="smNativeData" id="1603321962">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1603094671"/>
         </ext>
       </extLst>
     </border>
@@ -1415,7 +1373,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1518,12 +1476,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="22" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -1538,10 +1490,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1603094671" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1603321962" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1603094671" count="5">
+      <pm:colors xmlns:pm="smNativeData" id="1603321962" count="5">
         <pm:color name="色 24" rgb="3F3F3F"/>
         <pm:color name="色 25" rgb="F2F2F2"/>
         <pm:color name="色 26" rgb="CCFFFF"/>
@@ -4782,7 +4734,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1603094671" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1603321962" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4793,16 +4745,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1603094671" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1603094671" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1603094671" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1603094671" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1603321962" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1603321962" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1603321962" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1603321962" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1603094671" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1603321962" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -4816,7 +4768,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" zoomScale="105" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -5211,7 +5163,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1603094671" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1603321962" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -5222,16 +5174,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1603094671" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1603094671" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1603094671" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1603094671" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1603321962" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1603321962" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1603321962" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1603321962" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1603094671" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1603321962" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -5242,10 +5194,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A59"/>
+  <dimension ref="A1:A200"/>
   <sheetViews>
     <sheetView view="normal" zoomScale="105" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13"/>
@@ -5254,12 +5206,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="28" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="28" t="s">
         <v>144</v>
       </c>
     </row>
@@ -5339,27 +5291,19 @@
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="28" t="s">
-        <v>160</v>
-      </c>
+      <c r="A18" s="33"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="28" t="s">
-        <v>161</v>
-      </c>
+      <c r="A19" s="33"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="28" t="s">
-        <v>162</v>
-      </c>
+      <c r="A20" s="33"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="28" t="s">
-        <v>163</v>
-      </c>
+      <c r="A21" s="33"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="28"/>
+      <c r="A22" s="33"/>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="33"/>
@@ -5471,12 +5415,435 @@
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="33"/>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="33"/>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="33"/>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="33"/>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="33"/>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="33"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="33"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="33"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="33"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="33"/>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="33"/>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="33"/>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="33"/>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="33"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="33"/>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="33"/>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="33"/>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="33"/>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="33"/>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="33"/>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="33"/>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="33"/>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="33"/>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="33"/>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="33"/>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="33"/>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="33"/>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="33"/>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="33"/>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="33"/>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="33"/>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="33"/>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="33"/>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="33"/>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="33"/>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="33"/>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="33"/>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="33"/>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="33"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="33"/>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="33"/>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="33"/>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="33"/>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="33"/>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="33"/>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="33"/>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="33"/>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="33"/>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="33"/>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="33"/>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="33"/>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="33"/>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="33"/>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="33"/>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="33"/>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="33"/>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="33"/>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="33"/>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="33"/>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="33"/>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="33"/>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="33"/>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="33"/>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="33"/>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="33"/>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="33"/>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="33"/>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="33"/>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="33"/>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="33"/>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="33"/>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="33"/>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="33"/>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="33"/>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="33"/>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="33"/>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="33"/>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="33"/>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="33"/>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="33"/>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="33"/>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="33"/>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="33"/>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="33"/>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="33"/>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="33"/>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="33"/>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="33"/>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="33"/>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="33"/>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="33"/>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="33"/>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="33"/>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="33"/>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="33"/>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="33"/>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="33"/>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="33"/>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="33"/>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="33"/>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="33"/>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="33"/>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="33"/>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="33"/>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="33"/>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="33"/>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="33"/>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="33"/>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="33"/>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="33"/>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="33"/>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="33"/>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="33"/>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="33"/>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="33"/>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="33"/>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="33"/>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="33"/>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="33"/>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="33"/>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="33"/>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="33"/>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="33"/>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="33"/>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="33"/>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="33"/>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="33"/>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="33"/>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="33"/>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="33"/>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="33"/>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="33"/>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="33"/>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="33"/>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="33"/>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="33"/>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="33"/>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="33"/>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="33"/>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="33"/>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="33"/>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="33"/>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1603094671" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1603321962" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -5485,16 +5852,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1603094671" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1603094671" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1603094671" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1603094671" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1603321962" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1603321962" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1603321962" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1603321962" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1603094671" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1603321962" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
